--- a/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.51</t>
+    <t>urn:oid:1.2.250.1.213.3.3.51</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -144,7 +150,10 @@
     <t>Horaire de fermeture</t>
   </si>
   <si>
-    <t/>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Horaire à préciser</t>
   </si>
   <si>
     <t>System URI</t>
@@ -284,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -390,20 +399,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -413,7 +430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,90 +442,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2023-06-30T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,88 +72,79 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type horaire</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Horaire d'ouverture</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Horaire de fonctionnement</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Horaire de garde</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Horaire d'ouverture du secrétariat</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Horaire de visite d'un acteur de santé</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Horaire de consultation sans RDV</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Horaire de consultation sur RDV</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Horaire de fermeture</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type horaire</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Horaire d'ouverture</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Horaire de fonctionnement</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Horaire de garde</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Horaire d'ouverture du secrétariat</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Horaire de visite d'un acteur de santé</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Horaire de consultation sans RDV</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Horaire de consultation sur RDV</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Horaire de fermeture</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Horaire à préciser</t>
   </si>
   <si>
     <t>System URI</t>
@@ -293,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -399,28 +390,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -430,7 +413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,98 +425,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,85 +75,94 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type horaire</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Horaire d'ouverture</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Horaire de fonctionnement</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Horaire de garde</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Horaire d'ouverture du secrétariat</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Horaire de visite à domicile</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Horaire de consultation sans RDV</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Horaire de consultation sur RDV</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Horaire de fermeture</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Horaire à préciser</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Horaire de téléconsultation</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Horaire mixte : consultation ou téléconsultation</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type horaire</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Horaire d'ouverture</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Horaire de fonctionnement</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Horaire de garde</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Horaire d'ouverture du secrétariat</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Horaire de visite d'un acteur de santé</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Horaire de consultation sans RDV</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Horaire de consultation sur RDV</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Horaire de fermeture</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Horaire à préciser</t>
   </si>
   <si>
     <t>System URI</t>
@@ -293,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -399,28 +408,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -430,7 +431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,90 +443,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -534,6 +535,22 @@
       </c>
       <c r="B12" t="s" s="2">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J41-TypeHoraire-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
